--- a/problem solving level 1.xlsx
+++ b/problem solving level 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5940" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="problem solving level 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -952,6 +952,21 @@
   </si>
   <si>
     <t>Accepted solution link</t>
+  </si>
+  <si>
+    <t>Reading Time in (min)</t>
+  </si>
+  <si>
+    <t>Thinking Time in (min)</t>
+  </si>
+  <si>
+    <t>Coding Time in (min)</t>
+  </si>
+  <si>
+    <t>Debug Time in (min)</t>
+  </si>
+  <si>
+    <t>Total Time in (min)</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J407"/>
+  <dimension ref="A1:O407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A3"/>
@@ -1896,11 +1911,12 @@
     <col min="2" max="2" width="7.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="6" customWidth="1"/>
     <col min="4" max="8" width="7.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="99" style="1" customWidth="1"/>
+    <col min="9" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1926,13 +1942,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="27"/>
       <c r="C2" s="30"/>
@@ -1942,11 +1973,16 @@
       <c r="G2" s="20"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="28"/>
       <c r="C3" s="8">
@@ -1973,16 +2009,36 @@
         <f>SUM(H4:H999)</f>
         <v>162.66666666666666</v>
       </c>
-      <c r="I3" s="9">
-        <f>COUNTA(I4:I999)</f>
+      <c r="I3" s="9" t="e">
+        <f>AVERAGE(I4:I303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="9" t="e">
+        <f>AVERAGE(J4:J303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="9" t="e">
+        <f>AVERAGE(K4:K303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="9" t="e">
+        <f>AVERAGE(L4:L303)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="9">
+        <f>AVERAGE(M4:M303)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>COUNTA(N4:N999)</f>
         <v>300</v>
       </c>
-      <c r="J3" s="9">
-        <f>COUNTA(J4:J999)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="9">
+        <f>COUNTA(O4:O999)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>340</v>
       </c>
@@ -1999,12 +2055,20 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11">
+        <f>SUM(I4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>304</v>
       </c>
@@ -2021,12 +2085,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11">
+        <f>SUM(I5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>395</v>
       </c>
@@ -2043,12 +2115,20 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11">
+        <f>SUM(I6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>107</v>
       </c>
@@ -2065,12 +2145,20 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11">
+        <f>SUM(I7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>256</v>
       </c>
@@ -2087,12 +2175,20 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11">
+        <f>SUM(I8:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>322</v>
       </c>
@@ -2109,12 +2205,20 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
+        <f t="shared" ref="M9:M72" si="0">SUM(I9:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>388</v>
       </c>
@@ -2131,12 +2235,20 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>172</v>
       </c>
@@ -2153,12 +2265,20 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>348</v>
       </c>
@@ -2175,12 +2295,20 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>101</v>
       </c>
@@ -2197,12 +2325,20 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>186</v>
       </c>
@@ -2219,12 +2355,20 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>389</v>
       </c>
@@ -2241,12 +2385,20 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>393</v>
       </c>
@@ -2263,12 +2415,20 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>114</v>
       </c>
@@ -2285,12 +2445,20 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>188</v>
       </c>
@@ -2307,12 +2475,20 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>258</v>
       </c>
@@ -2329,12 +2505,20 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>366</v>
       </c>
@@ -2351,12 +2535,20 @@
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>200</v>
       </c>
@@ -2373,12 +2565,20 @@
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>365</v>
       </c>
@@ -2395,12 +2595,20 @@
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>143</v>
       </c>
@@ -2417,12 +2625,20 @@
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>144</v>
       </c>
@@ -2439,12 +2655,20 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="18"/>
-    </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>210</v>
       </c>
@@ -2461,12 +2685,20 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>222</v>
       </c>
@@ -2483,12 +2715,20 @@
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>259</v>
       </c>
@@ -2505,12 +2745,20 @@
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>267</v>
       </c>
@@ -2527,12 +2775,20 @@
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>352</v>
       </c>
@@ -2549,12 +2805,20 @@
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>357</v>
       </c>
@@ -2571,12 +2835,20 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>359</v>
       </c>
@@ -2593,12 +2865,20 @@
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>377</v>
       </c>
@@ -2615,12 +2895,20 @@
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="16"/>
-    </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>386</v>
       </c>
@@ -2637,12 +2925,20 @@
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="16"/>
-    </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>105</v>
       </c>
@@ -2659,12 +2955,20 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>152</v>
       </c>
@@ -2681,12 +2985,20 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>166</v>
       </c>
@@ -2703,12 +3015,20 @@
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>247</v>
       </c>
@@ -2725,12 +3045,20 @@
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="16"/>
-    </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>270</v>
       </c>
@@ -2747,12 +3075,20 @@
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J38" s="16"/>
-    </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>280</v>
       </c>
@@ -2769,12 +3105,20 @@
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="16"/>
-    </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>400</v>
       </c>
@@ -2791,12 +3135,20 @@
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>369</v>
       </c>
@@ -2813,12 +3165,20 @@
         <v>1</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>374</v>
       </c>
@@ -2835,12 +3195,20 @@
         <v>1</v>
       </c>
       <c r="H42" s="10"/>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>379</v>
       </c>
@@ -2857,12 +3225,20 @@
         <v>1</v>
       </c>
       <c r="H43" s="10"/>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>162</v>
       </c>
@@ -2879,12 +3255,20 @@
         <v>1</v>
       </c>
       <c r="H44" s="17"/>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="18"/>
+    </row>
+    <row r="45" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>163</v>
       </c>
@@ -2901,12 +3285,20 @@
         <v>1</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>225</v>
       </c>
@@ -2923,12 +3315,20 @@
         <v>1</v>
       </c>
       <c r="H46" s="10"/>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>253</v>
       </c>
@@ -2945,12 +3345,20 @@
         <v>1</v>
       </c>
       <c r="H47" s="10"/>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>343</v>
       </c>
@@ -2967,12 +3375,20 @@
         <v>1</v>
       </c>
       <c r="H48" s="17"/>
-      <c r="I48" s="15" t="s">
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>360</v>
       </c>
@@ -2989,12 +3405,20 @@
         <v>1</v>
       </c>
       <c r="H49" s="10"/>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>376</v>
       </c>
@@ -3011,12 +3435,20 @@
         <v>1</v>
       </c>
       <c r="H50" s="10"/>
-      <c r="I50" s="15" t="s">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>127</v>
       </c>
@@ -3033,12 +3465,20 @@
         <v>1</v>
       </c>
       <c r="H51" s="17"/>
-      <c r="I51" s="15" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>173</v>
       </c>
@@ -3055,12 +3495,20 @@
         <v>1</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="J52" s="16"/>
-    </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>197</v>
       </c>
@@ -3077,12 +3525,20 @@
         <v>1</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="J53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>265</v>
       </c>
@@ -3099,12 +3555,20 @@
         <v>1</v>
       </c>
       <c r="H54" s="17"/>
-      <c r="I54" s="15" t="s">
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>295</v>
       </c>
@@ -3121,12 +3585,20 @@
         <v>1</v>
       </c>
       <c r="H55" s="10"/>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="16"/>
-    </row>
-    <row r="56" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>301</v>
       </c>
@@ -3143,12 +3615,20 @@
         <v>1</v>
       </c>
       <c r="H56" s="10"/>
-      <c r="I56" s="15" t="s">
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>309</v>
       </c>
@@ -3165,12 +3645,20 @@
         <v>1</v>
       </c>
       <c r="H57" s="17"/>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="18"/>
+    </row>
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>347</v>
       </c>
@@ -3187,12 +3675,20 @@
         <v>1</v>
       </c>
       <c r="H58" s="17"/>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="18"/>
+    </row>
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>385</v>
       </c>
@@ -3209,12 +3705,20 @@
         <v>1</v>
       </c>
       <c r="H59" s="17"/>
-      <c r="I59" s="15" t="s">
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="J59" s="18"/>
-    </row>
-    <row r="60" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>397</v>
       </c>
@@ -3231,12 +3735,20 @@
         <v>1</v>
       </c>
       <c r="H60" s="17"/>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="18"/>
+    </row>
+    <row r="61" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>104</v>
       </c>
@@ -3253,12 +3765,20 @@
         <v>1</v>
       </c>
       <c r="H61" s="17"/>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>189</v>
       </c>
@@ -3275,12 +3795,20 @@
         <v>1</v>
       </c>
       <c r="H62" s="10"/>
-      <c r="I62" s="15" t="s">
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="J62" s="16"/>
-    </row>
-    <row r="63" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>161</v>
       </c>
@@ -3297,12 +3825,20 @@
       <c r="H63" s="10">
         <v>1</v>
       </c>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="16"/>
-    </row>
-    <row r="64" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>289</v>
       </c>
@@ -3319,12 +3855,20 @@
       <c r="H64" s="10">
         <v>1</v>
       </c>
-      <c r="I64" s="15" t="s">
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J64" s="16"/>
-    </row>
-    <row r="65" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>330</v>
       </c>
@@ -3341,12 +3885,20 @@
       <c r="H65" s="17">
         <v>1</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="J65" s="18"/>
-    </row>
-    <row r="66" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="18"/>
+    </row>
+    <row r="66" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>355</v>
       </c>
@@ -3363,12 +3915,20 @@
       <c r="H66" s="10">
         <v>1</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J66" s="16"/>
-    </row>
-    <row r="67" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>392</v>
       </c>
@@ -3385,12 +3945,20 @@
       <c r="H67" s="10">
         <v>1</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J67" s="16"/>
-    </row>
-    <row r="68" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>141</v>
       </c>
@@ -3407,12 +3975,20 @@
       <c r="H68" s="10">
         <v>1</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N68" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="J68" s="16"/>
-    </row>
-    <row r="69" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>146</v>
       </c>
@@ -3429,12 +4005,20 @@
       <c r="H69" s="10">
         <v>1</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N69" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J69" s="16"/>
-    </row>
-    <row r="70" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>156</v>
       </c>
@@ -3451,12 +4035,20 @@
       <c r="H70" s="10">
         <v>1</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="J70" s="16"/>
-    </row>
-    <row r="71" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>160</v>
       </c>
@@ -3473,12 +4065,20 @@
       <c r="H71" s="17">
         <v>1</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="18"/>
+    </row>
+    <row r="72" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>164</v>
       </c>
@@ -3495,12 +4095,20 @@
       <c r="H72" s="10">
         <v>1</v>
       </c>
-      <c r="I72" s="15" t="s">
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J72" s="16"/>
-    </row>
-    <row r="73" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>223</v>
       </c>
@@ -3517,12 +4125,20 @@
       <c r="H73" s="10">
         <v>1</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11">
+        <f t="shared" ref="M73:M136" si="1">SUM(I73:L73)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="16"/>
-    </row>
-    <row r="74" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>243</v>
       </c>
@@ -3539,12 +4155,20 @@
       <c r="H74" s="17">
         <v>1</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="18"/>
+    </row>
+    <row r="75" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>244</v>
       </c>
@@ -3561,12 +4185,20 @@
       <c r="H75" s="10">
         <v>1</v>
       </c>
-      <c r="I75" s="15" t="s">
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J75" s="16"/>
-    </row>
-    <row r="76" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>290</v>
       </c>
@@ -3583,12 +4215,20 @@
       <c r="H76" s="10">
         <v>1</v>
       </c>
-      <c r="I76" s="15" t="s">
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="J76" s="16"/>
-    </row>
-    <row r="77" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>338</v>
       </c>
@@ -3605,12 +4245,20 @@
       <c r="H77" s="10">
         <v>1</v>
       </c>
-      <c r="I77" s="15" t="s">
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="J77" s="16"/>
-    </row>
-    <row r="78" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="16"/>
+    </row>
+    <row r="78" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>364</v>
       </c>
@@ -3627,12 +4275,20 @@
       <c r="H78" s="10">
         <v>1</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="J78" s="16"/>
-    </row>
-    <row r="79" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>372</v>
       </c>
@@ -3649,12 +4305,20 @@
       <c r="H79" s="10">
         <v>1</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="J79" s="16"/>
-    </row>
-    <row r="80" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="16"/>
+    </row>
+    <row r="80" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>375</v>
       </c>
@@ -3671,12 +4335,20 @@
       <c r="H80" s="10">
         <v>1</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="J80" s="16"/>
-    </row>
-    <row r="81" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>103</v>
       </c>
@@ -3693,12 +4365,20 @@
       <c r="H81" s="10">
         <v>1</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="J81" s="16"/>
-    </row>
-    <row r="82" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="16"/>
+    </row>
+    <row r="82" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>109</v>
       </c>
@@ -3715,12 +4395,20 @@
       <c r="H82" s="10">
         <v>1</v>
       </c>
-      <c r="I82" s="15" t="s">
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="J82" s="16"/>
-    </row>
-    <row r="83" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="16"/>
+    </row>
+    <row r="83" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>170</v>
       </c>
@@ -3737,12 +4425,20 @@
       <c r="H83" s="17">
         <v>1</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="J83" s="18"/>
-    </row>
-    <row r="84" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="18"/>
+    </row>
+    <row r="84" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>178</v>
       </c>
@@ -3759,12 +4455,20 @@
       <c r="H84" s="17">
         <v>1</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="J84" s="18"/>
-    </row>
-    <row r="85" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="18"/>
+    </row>
+    <row r="85" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>192</v>
       </c>
@@ -3781,12 +4485,20 @@
       <c r="H85" s="10">
         <v>1</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J85" s="16"/>
-    </row>
-    <row r="86" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>235</v>
       </c>
@@ -3803,12 +4515,20 @@
       <c r="H86" s="10">
         <v>1</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J86" s="16"/>
-    </row>
-    <row r="87" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>239</v>
       </c>
@@ -3825,12 +4545,20 @@
       <c r="H87" s="17">
         <v>1</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="J87" s="18"/>
-    </row>
-    <row r="88" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="18"/>
+    </row>
+    <row r="88" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>240</v>
       </c>
@@ -3847,12 +4575,20 @@
       <c r="H88" s="17">
         <v>1</v>
       </c>
-      <c r="I88" s="15" t="s">
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="J88" s="18"/>
-    </row>
-    <row r="89" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="18"/>
+    </row>
+    <row r="89" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>246</v>
       </c>
@@ -3869,12 +4605,20 @@
       <c r="H89" s="10">
         <v>1</v>
       </c>
-      <c r="I89" s="15" t="s">
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="J89" s="16"/>
-    </row>
-    <row r="90" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>255</v>
       </c>
@@ -3891,12 +4635,20 @@
       <c r="H90" s="17">
         <v>1</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="J90" s="18"/>
-    </row>
-    <row r="91" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="18"/>
+    </row>
+    <row r="91" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>279</v>
       </c>
@@ -3913,12 +4665,20 @@
       <c r="H91" s="10">
         <v>1</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J91" s="16"/>
-    </row>
-    <row r="92" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>351</v>
       </c>
@@ -3935,12 +4695,20 @@
       <c r="H92" s="17">
         <v>1</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="J92" s="18"/>
-    </row>
-    <row r="93" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="18"/>
+    </row>
+    <row r="93" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>356</v>
       </c>
@@ -3957,12 +4725,20 @@
       <c r="H93" s="17">
         <v>1</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="J93" s="18"/>
-    </row>
-    <row r="94" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="18"/>
+    </row>
+    <row r="94" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>370</v>
       </c>
@@ -3979,12 +4755,20 @@
       <c r="H94" s="17">
         <v>1</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="J94" s="18"/>
-    </row>
-    <row r="95" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="18"/>
+    </row>
+    <row r="95" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>111</v>
       </c>
@@ -4001,12 +4785,20 @@
       <c r="H95" s="10">
         <v>1</v>
       </c>
-      <c r="I95" s="15" t="s">
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="J95" s="16"/>
-    </row>
-    <row r="96" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>129</v>
       </c>
@@ -4023,12 +4815,20 @@
       <c r="H96" s="17">
         <v>1</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="J96" s="18"/>
-    </row>
-    <row r="97" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="18"/>
+    </row>
+    <row r="97" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>132</v>
       </c>
@@ -4045,12 +4845,20 @@
       <c r="H97" s="17">
         <v>1</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J97" s="18"/>
-    </row>
-    <row r="98" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="18"/>
+    </row>
+    <row r="98" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>142</v>
       </c>
@@ -4067,12 +4875,20 @@
       <c r="H98" s="10">
         <v>1</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J98" s="16"/>
-    </row>
-    <row r="99" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="16"/>
+    </row>
+    <row r="99" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>150</v>
       </c>
@@ -4089,12 +4905,20 @@
       <c r="H99" s="17">
         <v>1</v>
       </c>
-      <c r="I99" s="15" t="s">
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="J99" s="18"/>
-    </row>
-    <row r="100" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="18"/>
+    </row>
+    <row r="100" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>167</v>
       </c>
@@ -4111,12 +4935,20 @@
       <c r="H100" s="17">
         <v>1</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="18"/>
+    </row>
+    <row r="101" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>168</v>
       </c>
@@ -4133,12 +4965,20 @@
       <c r="H101" s="17">
         <v>1</v>
       </c>
-      <c r="I101" s="15" t="s">
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="J101" s="18"/>
-    </row>
-    <row r="102" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="18"/>
+    </row>
+    <row r="102" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>196</v>
       </c>
@@ -4155,12 +4995,20 @@
       <c r="H102" s="10">
         <v>1</v>
       </c>
-      <c r="I102" s="15" t="s">
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J102" s="16"/>
-    </row>
-    <row r="103" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>327</v>
       </c>
@@ -4177,12 +5025,20 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
-      <c r="I103" s="15" t="s">
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J103" s="16"/>
-    </row>
-    <row r="104" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>332</v>
       </c>
@@ -4199,12 +5055,20 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
-      <c r="I104" s="15" t="s">
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J104" s="16"/>
-    </row>
-    <row r="105" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>125</v>
       </c>
@@ -4221,12 +5085,20 @@
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
-      <c r="I105" s="15" t="s">
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="18"/>
-    </row>
-    <row r="106" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="18"/>
+    </row>
+    <row r="106" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>350</v>
       </c>
@@ -4243,12 +5115,20 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
-      <c r="I106" s="15" t="s">
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J106" s="16"/>
-    </row>
-    <row r="107" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>123</v>
       </c>
@@ -4265,12 +5145,20 @@
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
-      <c r="I107" s="15" t="s">
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="18"/>
-    </row>
-    <row r="108" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="18"/>
+    </row>
+    <row r="108" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>285</v>
       </c>
@@ -4287,12 +5175,20 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
-      <c r="I108" s="15" t="s">
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J108" s="16"/>
-    </row>
-    <row r="109" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>337</v>
       </c>
@@ -4309,12 +5205,20 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J109" s="16"/>
-    </row>
-    <row r="110" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>362</v>
       </c>
@@ -4331,12 +5235,20 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J110" s="16"/>
-    </row>
-    <row r="111" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>396</v>
       </c>
@@ -4353,12 +5265,20 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
-      <c r="I111" s="15" t="s">
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J111" s="16"/>
-    </row>
-    <row r="112" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>195</v>
       </c>
@@ -4375,12 +5295,20 @@
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
-      <c r="I112" s="15" t="s">
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J112" s="18"/>
-    </row>
-    <row r="113" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="18"/>
+    </row>
+    <row r="113" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>206</v>
       </c>
@@ -4397,12 +5325,20 @@
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
-      <c r="I113" s="15" t="s">
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J113" s="18"/>
-    </row>
-    <row r="114" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="18"/>
+    </row>
+    <row r="114" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>274</v>
       </c>
@@ -4419,12 +5355,20 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
-      <c r="I114" s="15" t="s">
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J114" s="16"/>
-    </row>
-    <row r="115" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>292</v>
       </c>
@@ -4441,12 +5385,20 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
-      <c r="I115" s="15" t="s">
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J115" s="16"/>
-    </row>
-    <row r="116" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="16"/>
+    </row>
+    <row r="116" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>324</v>
       </c>
@@ -4463,12 +5415,20 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
-      <c r="I116" s="15" t="s">
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J116" s="16"/>
-    </row>
-    <row r="117" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="16"/>
+    </row>
+    <row r="117" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>346</v>
       </c>
@@ -4485,12 +5445,20 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
-      <c r="I117" s="15" t="s">
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J117" s="16"/>
-    </row>
-    <row r="118" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="16"/>
+    </row>
+    <row r="118" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>349</v>
       </c>
@@ -4507,12 +5475,20 @@
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
-      <c r="I118" s="15" t="s">
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J118" s="18"/>
-    </row>
-    <row r="119" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="18"/>
+    </row>
+    <row r="119" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>122</v>
       </c>
@@ -4529,12 +5505,20 @@
       </c>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
-      <c r="I119" s="15" t="s">
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J119" s="18"/>
-    </row>
-    <row r="120" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="18"/>
+    </row>
+    <row r="120" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>131</v>
       </c>
@@ -4551,12 +5535,20 @@
       </c>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
-      <c r="I120" s="15" t="s">
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J120" s="16"/>
-    </row>
-    <row r="121" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="16"/>
+    </row>
+    <row r="121" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>136</v>
       </c>
@@ -4573,12 +5565,20 @@
       </c>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
-      <c r="I121" s="15" t="s">
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J121" s="18"/>
-    </row>
-    <row r="122" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="18"/>
+    </row>
+    <row r="122" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>151</v>
       </c>
@@ -4595,12 +5595,20 @@
       </c>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
-      <c r="I122" s="15" t="s">
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="J122" s="18"/>
-    </row>
-    <row r="123" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="18"/>
+    </row>
+    <row r="123" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>169</v>
       </c>
@@ -4617,12 +5625,20 @@
       </c>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
-      <c r="I123" s="15" t="s">
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J123" s="16"/>
-    </row>
-    <row r="124" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="16"/>
+    </row>
+    <row r="124" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>194</v>
       </c>
@@ -4639,12 +5655,20 @@
       </c>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
-      <c r="I124" s="15" t="s">
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="J124" s="18"/>
-    </row>
-    <row r="125" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="18"/>
+    </row>
+    <row r="125" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>262</v>
       </c>
@@ -4661,12 +5685,20 @@
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
-      <c r="I125" s="15" t="s">
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="J125" s="16"/>
-    </row>
-    <row r="126" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="16"/>
+    </row>
+    <row r="126" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>320</v>
       </c>
@@ -4683,12 +5715,20 @@
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
-      <c r="I126" s="15" t="s">
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J126" s="16"/>
-    </row>
-    <row r="127" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="16"/>
+    </row>
+    <row r="127" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>326</v>
       </c>
@@ -4705,12 +5745,20 @@
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
-      <c r="I127" s="15" t="s">
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J127" s="16"/>
-    </row>
-    <row r="128" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="16"/>
+    </row>
+    <row r="128" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>383</v>
       </c>
@@ -4727,12 +5775,20 @@
       </c>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
-      <c r="I128" s="15" t="s">
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="J128" s="16"/>
-    </row>
-    <row r="129" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="16"/>
+    </row>
+    <row r="129" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>387</v>
       </c>
@@ -4749,12 +5805,20 @@
       </c>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
-      <c r="I129" s="15" t="s">
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="J129" s="18"/>
-    </row>
-    <row r="130" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="18"/>
+    </row>
+    <row r="130" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>175</v>
       </c>
@@ -4771,12 +5835,20 @@
       </c>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
-      <c r="I130" s="15" t="s">
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="J130" s="18"/>
-    </row>
-    <row r="131" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="18"/>
+    </row>
+    <row r="131" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>177</v>
       </c>
@@ -4793,12 +5865,20 @@
       </c>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
-      <c r="I131" s="15" t="s">
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J131" s="18"/>
-    </row>
-    <row r="132" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="18"/>
+    </row>
+    <row r="132" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>190</v>
       </c>
@@ -4815,12 +5895,20 @@
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
-      <c r="I132" s="15" t="s">
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="J132" s="18"/>
-    </row>
-    <row r="133" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="18"/>
+    </row>
+    <row r="133" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>214</v>
       </c>
@@ -4837,12 +5925,20 @@
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
-      <c r="I133" s="15" t="s">
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J133" s="18"/>
-    </row>
-    <row r="134" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="18"/>
+    </row>
+    <row r="134" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>272</v>
       </c>
@@ -4859,12 +5955,20 @@
       </c>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
-      <c r="I134" s="15" t="s">
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="J134" s="16"/>
-    </row>
-    <row r="135" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="16"/>
+    </row>
+    <row r="135" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>275</v>
       </c>
@@ -4881,12 +5985,20 @@
       </c>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
-      <c r="I135" s="15" t="s">
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="J135" s="18"/>
-    </row>
-    <row r="136" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="18"/>
+    </row>
+    <row r="136" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>296</v>
       </c>
@@ -4903,12 +6015,20 @@
       </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
-      <c r="I136" s="15" t="s">
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="J136" s="16"/>
-    </row>
-    <row r="137" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="16"/>
+    </row>
+    <row r="137" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>298</v>
       </c>
@@ -4925,12 +6045,20 @@
       </c>
       <c r="G137" s="17"/>
       <c r="H137" s="17"/>
-      <c r="I137" s="15" t="s">
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="11">
+        <f t="shared" ref="M137:M200" si="2">SUM(I137:L137)</f>
+        <v>0</v>
+      </c>
+      <c r="N137" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J137" s="18"/>
-    </row>
-    <row r="138" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="18"/>
+    </row>
+    <row r="138" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>308</v>
       </c>
@@ -4947,12 +6075,20 @@
       </c>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J138" s="18"/>
-    </row>
-    <row r="139" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="18"/>
+    </row>
+    <row r="139" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>319</v>
       </c>
@@ -4969,12 +6105,20 @@
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
-      <c r="I139" s="15" t="s">
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="J139" s="16"/>
-    </row>
-    <row r="140" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="16"/>
+    </row>
+    <row r="140" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>219</v>
       </c>
@@ -4991,12 +6135,20 @@
         <v>1</v>
       </c>
       <c r="H140" s="17"/>
-      <c r="I140" s="15" t="s">
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="J140" s="18"/>
-    </row>
-    <row r="141" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O140" s="18"/>
+    </row>
+    <row r="141" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>221</v>
       </c>
@@ -5013,12 +6165,20 @@
         <v>1</v>
       </c>
       <c r="H141" s="17"/>
-      <c r="I141" s="15" t="s">
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J141" s="18"/>
-    </row>
-    <row r="142" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O141" s="18"/>
+    </row>
+    <row r="142" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>227</v>
       </c>
@@ -5035,12 +6195,20 @@
         <v>1</v>
       </c>
       <c r="H142" s="17"/>
-      <c r="I142" s="15" t="s">
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J142" s="18"/>
-    </row>
-    <row r="143" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O142" s="18"/>
+    </row>
+    <row r="143" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>234</v>
       </c>
@@ -5057,12 +6225,20 @@
         <v>1</v>
       </c>
       <c r="H143" s="17"/>
-      <c r="I143" s="15" t="s">
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="J143" s="18"/>
-    </row>
-    <row r="144" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O143" s="18"/>
+    </row>
+    <row r="144" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>242</v>
       </c>
@@ -5079,12 +6255,20 @@
         <v>1</v>
       </c>
       <c r="H144" s="17"/>
-      <c r="I144" s="15" t="s">
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="J144" s="18"/>
-    </row>
-    <row r="145" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O144" s="18"/>
+    </row>
+    <row r="145" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>271</v>
       </c>
@@ -5101,12 +6285,20 @@
         <v>1</v>
       </c>
       <c r="H145" s="10"/>
-      <c r="I145" s="15" t="s">
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="J145" s="16"/>
-    </row>
-    <row r="146" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O145" s="16"/>
+    </row>
+    <row r="146" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>378</v>
       </c>
@@ -5123,12 +6315,20 @@
         <v>1</v>
       </c>
       <c r="H146" s="10"/>
-      <c r="I146" s="15" t="s">
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="J146" s="16"/>
-    </row>
-    <row r="147" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O146" s="16"/>
+    </row>
+    <row r="147" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>380</v>
       </c>
@@ -5145,12 +6345,20 @@
         <v>1</v>
       </c>
       <c r="H147" s="17"/>
-      <c r="I147" s="15" t="s">
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J147" s="18"/>
-    </row>
-    <row r="148" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O147" s="18"/>
+    </row>
+    <row r="148" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>382</v>
       </c>
@@ -5167,12 +6375,20 @@
         <v>1</v>
       </c>
       <c r="H148" s="17"/>
-      <c r="I148" s="15" t="s">
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="J148" s="18"/>
-    </row>
-    <row r="149" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O148" s="18"/>
+    </row>
+    <row r="149" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>130</v>
       </c>
@@ -5189,12 +6405,20 @@
         <v>1</v>
       </c>
       <c r="H149" s="10"/>
-      <c r="I149" s="15" t="s">
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J149" s="16"/>
-    </row>
-    <row r="150" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O149" s="16"/>
+    </row>
+    <row r="150" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>135</v>
       </c>
@@ -5211,12 +6435,20 @@
         <v>1</v>
       </c>
       <c r="H150" s="17"/>
-      <c r="I150" s="15" t="s">
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J150" s="18"/>
-    </row>
-    <row r="151" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O150" s="18"/>
+    </row>
+    <row r="151" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>157</v>
       </c>
@@ -5233,12 +6465,20 @@
         <v>1</v>
       </c>
       <c r="H151" s="17"/>
-      <c r="I151" s="15" t="s">
+      <c r="I151" s="17"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="J151" s="18"/>
-    </row>
-    <row r="152" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O151" s="18"/>
+    </row>
+    <row r="152" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>213</v>
       </c>
@@ -5255,12 +6495,20 @@
         <v>1</v>
       </c>
       <c r="H152" s="17"/>
-      <c r="I152" s="15" t="s">
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="J152" s="18"/>
-    </row>
-    <row r="153" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O152" s="18"/>
+    </row>
+    <row r="153" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>224</v>
       </c>
@@ -5277,12 +6525,20 @@
         <v>1</v>
       </c>
       <c r="H153" s="17"/>
-      <c r="I153" s="15" t="s">
+      <c r="I153" s="17"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N153" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="J153" s="18"/>
-    </row>
-    <row r="154" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O153" s="18"/>
+    </row>
+    <row r="154" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>237</v>
       </c>
@@ -5299,12 +6555,20 @@
         <v>1</v>
       </c>
       <c r="H154" s="17"/>
-      <c r="I154" s="15" t="s">
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N154" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="J154" s="18"/>
-    </row>
-    <row r="155" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O154" s="18"/>
+    </row>
+    <row r="155" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>278</v>
       </c>
@@ -5321,12 +6585,20 @@
         <v>1</v>
       </c>
       <c r="H155" s="17"/>
-      <c r="I155" s="15" t="s">
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="J155" s="18"/>
-    </row>
-    <row r="156" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O155" s="18"/>
+    </row>
+    <row r="156" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>294</v>
       </c>
@@ -5343,12 +6615,20 @@
         <v>1</v>
       </c>
       <c r="H156" s="10"/>
-      <c r="I156" s="15" t="s">
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N156" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J156" s="16"/>
-    </row>
-    <row r="157" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O156" s="16"/>
+    </row>
+    <row r="157" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>302</v>
       </c>
@@ -5365,12 +6645,20 @@
         <v>1</v>
       </c>
       <c r="H157" s="17"/>
-      <c r="I157" s="15" t="s">
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J157" s="18"/>
-    </row>
-    <row r="158" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O157" s="18"/>
+    </row>
+    <row r="158" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>310</v>
       </c>
@@ -5387,12 +6675,20 @@
         <v>1</v>
       </c>
       <c r="H158" s="10"/>
-      <c r="I158" s="15" t="s">
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="J158" s="16"/>
-    </row>
-    <row r="159" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O158" s="16"/>
+    </row>
+    <row r="159" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
         <v>391</v>
       </c>
@@ -5409,12 +6705,20 @@
         <v>1</v>
       </c>
       <c r="H159" s="17"/>
-      <c r="I159" s="15" t="s">
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+      <c r="M159" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="J159" s="18"/>
-    </row>
-    <row r="160" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O159" s="18"/>
+    </row>
+    <row r="160" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>118</v>
       </c>
@@ -5431,12 +6735,20 @@
         <v>1</v>
       </c>
       <c r="H160" s="17"/>
-      <c r="I160" s="15" t="s">
+      <c r="I160" s="17"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+      <c r="M160" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="J160" s="18"/>
-    </row>
-    <row r="161" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O160" s="18"/>
+    </row>
+    <row r="161" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>145</v>
       </c>
@@ -5453,12 +6765,20 @@
         <v>1</v>
       </c>
       <c r="H161" s="17"/>
-      <c r="I161" s="15" t="s">
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="J161" s="18"/>
-    </row>
-    <row r="162" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O161" s="18"/>
+    </row>
+    <row r="162" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>211</v>
       </c>
@@ -5475,12 +6795,20 @@
       <c r="H162" s="17">
         <v>1</v>
       </c>
-      <c r="I162" s="15" t="s">
+      <c r="I162" s="17"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+      <c r="M162" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="J162" s="18"/>
-    </row>
-    <row r="163" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O162" s="18"/>
+    </row>
+    <row r="163" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>216</v>
       </c>
@@ -5497,12 +6825,20 @@
       <c r="H163" s="17">
         <v>1</v>
       </c>
-      <c r="I163" s="15" t="s">
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="J163" s="18"/>
-    </row>
-    <row r="164" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O163" s="18"/>
+    </row>
+    <row r="164" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>238</v>
       </c>
@@ -5519,12 +6855,20 @@
       <c r="H164" s="10">
         <v>1</v>
       </c>
-      <c r="I164" s="15" t="s">
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J164" s="16"/>
-    </row>
-    <row r="165" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O164" s="16"/>
+    </row>
+    <row r="165" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>252</v>
       </c>
@@ -5541,12 +6885,20 @@
       <c r="H165" s="10">
         <v>1</v>
       </c>
-      <c r="I165" s="15" t="s">
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="J165" s="16"/>
-    </row>
-    <row r="166" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O165" s="16"/>
+    </row>
+    <row r="166" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>257</v>
       </c>
@@ -5563,12 +6915,20 @@
       <c r="H166" s="10">
         <v>1</v>
       </c>
-      <c r="I166" s="15" t="s">
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N166" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="J166" s="16"/>
-    </row>
-    <row r="167" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O166" s="16"/>
+    </row>
+    <row r="167" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>268</v>
       </c>
@@ -5585,12 +6945,20 @@
       <c r="H167" s="10">
         <v>1</v>
       </c>
-      <c r="I167" s="15" t="s">
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J167" s="16"/>
-    </row>
-    <row r="168" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O167" s="16"/>
+    </row>
+    <row r="168" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>283</v>
       </c>
@@ -5607,12 +6975,20 @@
       <c r="H168" s="17">
         <v>1</v>
       </c>
-      <c r="I168" s="15" t="s">
+      <c r="I168" s="17"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+      <c r="M168" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="J168" s="18"/>
-    </row>
-    <row r="169" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O168" s="18"/>
+    </row>
+    <row r="169" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>303</v>
       </c>
@@ -5629,12 +7005,20 @@
       <c r="H169" s="17">
         <v>1</v>
       </c>
-      <c r="I169" s="15" t="s">
+      <c r="I169" s="17"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+      <c r="M169" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J169" s="18"/>
-    </row>
-    <row r="170" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O169" s="18"/>
+    </row>
+    <row r="170" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>307</v>
       </c>
@@ -5651,12 +7035,20 @@
       <c r="H170" s="10">
         <v>1</v>
       </c>
-      <c r="I170" s="15" t="s">
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="J170" s="16"/>
-    </row>
-    <row r="171" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O170" s="16"/>
+    </row>
+    <row r="171" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>314</v>
       </c>
@@ -5673,12 +7065,20 @@
       <c r="H171" s="17">
         <v>1</v>
       </c>
-      <c r="I171" s="15" t="s">
+      <c r="I171" s="17"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J171" s="18"/>
-    </row>
-    <row r="172" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O171" s="18"/>
+    </row>
+    <row r="172" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>317</v>
       </c>
@@ -5695,12 +7095,20 @@
       <c r="H172" s="17">
         <v>1</v>
       </c>
-      <c r="I172" s="15" t="s">
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N172" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="J172" s="18"/>
-    </row>
-    <row r="173" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O172" s="18"/>
+    </row>
+    <row r="173" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>321</v>
       </c>
@@ -5717,12 +7125,20 @@
       <c r="H173" s="10">
         <v>1</v>
       </c>
-      <c r="I173" s="15" t="s">
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N173" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="J173" s="16"/>
-    </row>
-    <row r="174" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O173" s="16"/>
+    </row>
+    <row r="174" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>323</v>
       </c>
@@ -5739,12 +7155,20 @@
       <c r="H174" s="10">
         <v>1</v>
       </c>
-      <c r="I174" s="15" t="s">
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N174" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="J174" s="16"/>
-    </row>
-    <row r="175" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O174" s="16"/>
+    </row>
+    <row r="175" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>334</v>
       </c>
@@ -5761,12 +7185,20 @@
       <c r="H175" s="17">
         <v>1</v>
       </c>
-      <c r="I175" s="15" t="s">
+      <c r="I175" s="17"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+      <c r="M175" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="J175" s="18"/>
-    </row>
-    <row r="176" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O175" s="18"/>
+    </row>
+    <row r="176" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>341</v>
       </c>
@@ -5783,12 +7215,20 @@
       <c r="H176" s="10">
         <v>1</v>
       </c>
-      <c r="I176" s="15" t="s">
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J176" s="16"/>
-    </row>
-    <row r="177" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O176" s="16"/>
+    </row>
+    <row r="177" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>344</v>
       </c>
@@ -5805,12 +7245,20 @@
       <c r="H177" s="17">
         <v>1</v>
       </c>
-      <c r="I177" s="15" t="s">
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N177" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J177" s="18"/>
-    </row>
-    <row r="178" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O177" s="18"/>
+    </row>
+    <row r="178" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>354</v>
       </c>
@@ -5827,12 +7275,20 @@
       <c r="H178" s="10">
         <v>1</v>
       </c>
-      <c r="I178" s="15" t="s">
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N178" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="J178" s="16"/>
-    </row>
-    <row r="179" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O178" s="16"/>
+    </row>
+    <row r="179" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>363</v>
       </c>
@@ -5849,12 +7305,20 @@
       <c r="H179" s="17">
         <v>1</v>
       </c>
-      <c r="I179" s="15" t="s">
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N179" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="J179" s="18"/>
-    </row>
-    <row r="180" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O179" s="18"/>
+    </row>
+    <row r="180" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>368</v>
       </c>
@@ -5871,12 +7335,20 @@
       <c r="H180" s="10">
         <v>1</v>
       </c>
-      <c r="I180" s="15" t="s">
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N180" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="J180" s="16"/>
-    </row>
-    <row r="181" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O180" s="16"/>
+    </row>
+    <row r="181" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
         <v>399</v>
       </c>
@@ -5893,12 +7365,20 @@
       <c r="H181" s="17">
         <v>1</v>
       </c>
-      <c r="I181" s="15" t="s">
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="J181" s="18"/>
-    </row>
-    <row r="182" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O181" s="18"/>
+    </row>
+    <row r="182" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>106</v>
       </c>
@@ -5915,12 +7395,20 @@
       <c r="H182" s="17">
         <v>1</v>
       </c>
-      <c r="I182" s="15" t="s">
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J182" s="18"/>
-    </row>
-    <row r="183" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O182" s="18"/>
+    </row>
+    <row r="183" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>108</v>
       </c>
@@ -5937,12 +7425,20 @@
       <c r="H183" s="17">
         <v>1</v>
       </c>
-      <c r="I183" s="15" t="s">
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="J183" s="18"/>
-    </row>
-    <row r="184" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O183" s="18"/>
+    </row>
+    <row r="184" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>110</v>
       </c>
@@ -5959,12 +7455,20 @@
       <c r="H184" s="17">
         <v>1</v>
       </c>
-      <c r="I184" s="15" t="s">
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+      <c r="M184" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N184" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="J184" s="18"/>
-    </row>
-    <row r="185" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O184" s="18"/>
+    </row>
+    <row r="185" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>112</v>
       </c>
@@ -5981,12 +7485,20 @@
       <c r="H185" s="17">
         <v>1</v>
       </c>
-      <c r="I185" s="15" t="s">
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="J185" s="18"/>
-    </row>
-    <row r="186" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O185" s="18"/>
+    </row>
+    <row r="186" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>134</v>
       </c>
@@ -6003,12 +7515,20 @@
       <c r="H186" s="17">
         <v>1</v>
       </c>
-      <c r="I186" s="15" t="s">
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+      <c r="M186" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="J186" s="18"/>
-    </row>
-    <row r="187" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O186" s="18"/>
+    </row>
+    <row r="187" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>149</v>
       </c>
@@ -6025,12 +7545,20 @@
       <c r="H187" s="17">
         <v>1</v>
       </c>
-      <c r="I187" s="15" t="s">
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="J187" s="18"/>
-    </row>
-    <row r="188" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O187" s="18"/>
+    </row>
+    <row r="188" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>179</v>
       </c>
@@ -6047,12 +7575,20 @@
       <c r="H188" s="17">
         <v>1</v>
       </c>
-      <c r="I188" s="15" t="s">
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="J188" s="18"/>
-    </row>
-    <row r="189" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O188" s="18"/>
+    </row>
+    <row r="189" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>182</v>
       </c>
@@ -6069,12 +7605,20 @@
       <c r="H189" s="17">
         <v>1</v>
       </c>
-      <c r="I189" s="15" t="s">
+      <c r="I189" s="17"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+      <c r="M189" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N189" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="J189" s="18"/>
-    </row>
-    <row r="190" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O189" s="18"/>
+    </row>
+    <row r="190" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>204</v>
       </c>
@@ -6091,12 +7635,20 @@
       <c r="H190" s="17">
         <v>1</v>
       </c>
-      <c r="I190" s="15" t="s">
+      <c r="I190" s="17"/>
+      <c r="J190" s="17"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+      <c r="M190" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="J190" s="18"/>
-    </row>
-    <row r="191" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O190" s="18"/>
+    </row>
+    <row r="191" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>209</v>
       </c>
@@ -6113,12 +7665,20 @@
       <c r="H191" s="17">
         <v>1</v>
       </c>
-      <c r="I191" s="15" t="s">
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+      <c r="M191" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N191" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J191" s="18"/>
-    </row>
-    <row r="192" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O191" s="18"/>
+    </row>
+    <row r="192" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>215</v>
       </c>
@@ -6135,12 +7695,20 @@
       <c r="H192" s="17">
         <v>1</v>
       </c>
-      <c r="I192" s="15" t="s">
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N192" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="J192" s="18"/>
-    </row>
-    <row r="193" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O192" s="18"/>
+    </row>
+    <row r="193" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>226</v>
       </c>
@@ -6157,12 +7725,20 @@
       <c r="H193" s="17">
         <v>1</v>
       </c>
-      <c r="I193" s="15" t="s">
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N193" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="J193" s="18"/>
-    </row>
-    <row r="194" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O193" s="18"/>
+    </row>
+    <row r="194" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>228</v>
       </c>
@@ -6179,12 +7755,20 @@
       <c r="H194" s="17">
         <v>1</v>
       </c>
-      <c r="I194" s="15" t="s">
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N194" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="J194" s="18"/>
-    </row>
-    <row r="195" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O194" s="18"/>
+    </row>
+    <row r="195" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>249</v>
       </c>
@@ -6201,12 +7785,20 @@
       <c r="H195" s="17">
         <v>1</v>
       </c>
-      <c r="I195" s="15" t="s">
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+      <c r="M195" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N195" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="J195" s="18"/>
-    </row>
-    <row r="196" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O195" s="18"/>
+    </row>
+    <row r="196" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>251</v>
       </c>
@@ -6223,12 +7815,20 @@
       <c r="H196" s="10">
         <v>1</v>
       </c>
-      <c r="I196" s="15" t="s">
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N196" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="J196" s="16"/>
-    </row>
-    <row r="197" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O196" s="16"/>
+    </row>
+    <row r="197" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>263</v>
       </c>
@@ -6245,12 +7845,20 @@
       <c r="H197" s="10">
         <v>1</v>
       </c>
-      <c r="I197" s="15" t="s">
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N197" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="J197" s="16"/>
-    </row>
-    <row r="198" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O197" s="16"/>
+    </row>
+    <row r="198" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>284</v>
       </c>
@@ -6267,12 +7875,20 @@
       <c r="H198" s="17">
         <v>1</v>
       </c>
-      <c r="I198" s="15" t="s">
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+      <c r="M198" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N198" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J198" s="18"/>
-    </row>
-    <row r="199" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O198" s="18"/>
+    </row>
+    <row r="199" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>287</v>
       </c>
@@ -6289,12 +7905,20 @@
       <c r="H199" s="10">
         <v>1</v>
       </c>
-      <c r="I199" s="15" t="s">
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N199" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="J199" s="16"/>
-    </row>
-    <row r="200" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O199" s="16"/>
+    </row>
+    <row r="200" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>299</v>
       </c>
@@ -6311,12 +7935,20 @@
       <c r="H200" s="17">
         <v>1</v>
       </c>
-      <c r="I200" s="15" t="s">
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N200" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="J200" s="18"/>
-    </row>
-    <row r="201" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O200" s="18"/>
+    </row>
+    <row r="201" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>313</v>
       </c>
@@ -6333,12 +7965,20 @@
       <c r="H201" s="10">
         <v>1</v>
       </c>
-      <c r="I201" s="15" t="s">
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="11">
+        <f t="shared" ref="M201:M264" si="3">SUM(I201:L201)</f>
+        <v>0</v>
+      </c>
+      <c r="N201" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="J201" s="16"/>
-    </row>
-    <row r="202" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O201" s="16"/>
+    </row>
+    <row r="202" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>138</v>
       </c>
@@ -6355,12 +7995,20 @@
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
       <c r="H202" s="17"/>
-      <c r="I202" s="15" t="s">
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N202" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J202" s="18"/>
-    </row>
-    <row r="203" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O202" s="18"/>
+    </row>
+    <row r="203" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>277</v>
       </c>
@@ -6377,12 +8025,20 @@
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
-      <c r="I203" s="15" t="s">
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N203" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J203" s="16"/>
-    </row>
-    <row r="204" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O203" s="16"/>
+    </row>
+    <row r="204" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>266</v>
       </c>
@@ -6399,12 +8055,20 @@
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
-      <c r="I204" s="15" t="s">
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N204" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J204" s="16"/>
-    </row>
-    <row r="205" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O204" s="16"/>
+    </row>
+    <row r="205" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>133</v>
       </c>
@@ -6421,12 +8085,20 @@
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
       <c r="H205" s="17"/>
-      <c r="I205" s="15" t="s">
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+      <c r="M205" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N205" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J205" s="18"/>
-    </row>
-    <row r="206" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O205" s="18"/>
+    </row>
+    <row r="206" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>198</v>
       </c>
@@ -6443,12 +8115,20 @@
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
       <c r="H206" s="17"/>
-      <c r="I206" s="15" t="s">
+      <c r="I206" s="17"/>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N206" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J206" s="18"/>
-    </row>
-    <row r="207" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O206" s="18"/>
+    </row>
+    <row r="207" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>353</v>
       </c>
@@ -6465,12 +8145,20 @@
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
-      <c r="I207" s="15" t="s">
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N207" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J207" s="16"/>
-    </row>
-    <row r="208" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O207" s="16"/>
+    </row>
+    <row r="208" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>371</v>
       </c>
@@ -6487,12 +8175,20 @@
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
-      <c r="I208" s="15" t="s">
+      <c r="I208" s="17"/>
+      <c r="J208" s="17"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+      <c r="M208" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N208" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J208" s="18"/>
-    </row>
-    <row r="209" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O208" s="18"/>
+    </row>
+    <row r="209" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>394</v>
       </c>
@@ -6509,12 +8205,20 @@
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
-      <c r="I209" s="15" t="s">
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N209" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J209" s="16"/>
-    </row>
-    <row r="210" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O209" s="16"/>
+    </row>
+    <row r="210" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>217</v>
       </c>
@@ -6531,12 +8235,20 @@
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
       <c r="H210" s="17"/>
-      <c r="I210" s="15" t="s">
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
+      <c r="K210" s="17"/>
+      <c r="L210" s="17"/>
+      <c r="M210" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N210" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J210" s="18"/>
-    </row>
-    <row r="211" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O210" s="18"/>
+    </row>
+    <row r="211" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>273</v>
       </c>
@@ -6553,12 +8265,20 @@
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
-      <c r="I211" s="15" t="s">
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+      <c r="K211" s="10"/>
+      <c r="L211" s="10"/>
+      <c r="M211" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N211" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J211" s="16"/>
-    </row>
-    <row r="212" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O211" s="16"/>
+    </row>
+    <row r="212" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>120</v>
       </c>
@@ -6575,12 +8295,20 @@
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
       <c r="H212" s="17"/>
-      <c r="I212" s="15" t="s">
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
+      <c r="L212" s="17"/>
+      <c r="M212" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N212" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J212" s="18"/>
-    </row>
-    <row r="213" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O212" s="18"/>
+    </row>
+    <row r="213" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>261</v>
       </c>
@@ -6597,12 +8325,20 @@
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
-      <c r="I213" s="15" t="s">
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N213" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J213" s="16"/>
-    </row>
-    <row r="214" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O213" s="16"/>
+    </row>
+    <row r="214" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>140</v>
       </c>
@@ -6619,12 +8355,20 @@
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
       <c r="H214" s="17"/>
-      <c r="I214" s="15" t="s">
+      <c r="I214" s="17"/>
+      <c r="J214" s="17"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="17"/>
+      <c r="M214" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N214" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J214" s="18"/>
-    </row>
-    <row r="215" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O214" s="18"/>
+    </row>
+    <row r="215" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>171</v>
       </c>
@@ -6641,12 +8385,20 @@
       <c r="F215" s="17"/>
       <c r="G215" s="17"/>
       <c r="H215" s="17"/>
-      <c r="I215" s="15" t="s">
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
+      <c r="K215" s="17"/>
+      <c r="L215" s="17"/>
+      <c r="M215" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N215" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J215" s="18"/>
-    </row>
-    <row r="216" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O215" s="18"/>
+    </row>
+    <row r="216" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>124</v>
       </c>
@@ -6663,12 +8415,20 @@
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
       <c r="H216" s="17"/>
-      <c r="I216" s="15" t="s">
+      <c r="I216" s="17"/>
+      <c r="J216" s="17"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="17"/>
+      <c r="M216" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N216" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J216" s="18"/>
-    </row>
-    <row r="217" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O216" s="18"/>
+    </row>
+    <row r="217" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>100</v>
       </c>
@@ -6685,12 +8445,20 @@
       <c r="F217" s="17"/>
       <c r="G217" s="17"/>
       <c r="H217" s="17"/>
-      <c r="I217" s="15" t="s">
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+      <c r="M217" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N217" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J217" s="18"/>
-    </row>
-    <row r="218" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O217" s="18"/>
+    </row>
+    <row r="218" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>342</v>
       </c>
@@ -6707,12 +8475,20 @@
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
-      <c r="I218" s="15" t="s">
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+      <c r="M218" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N218" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J218" s="18"/>
-    </row>
-    <row r="219" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O218" s="18"/>
+    </row>
+    <row r="219" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>345</v>
       </c>
@@ -6729,12 +8505,20 @@
       </c>
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
-      <c r="I219" s="15" t="s">
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N219" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J219" s="16"/>
-    </row>
-    <row r="220" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O219" s="16"/>
+    </row>
+    <row r="220" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>367</v>
       </c>
@@ -6751,12 +8535,20 @@
       </c>
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
-      <c r="I220" s="15" t="s">
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N220" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J220" s="16"/>
-    </row>
-    <row r="221" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O220" s="16"/>
+    </row>
+    <row r="221" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>102</v>
       </c>
@@ -6773,12 +8565,20 @@
       </c>
       <c r="G221" s="17"/>
       <c r="H221" s="17"/>
-      <c r="I221" s="15" t="s">
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N221" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J221" s="18"/>
-    </row>
-    <row r="222" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O221" s="18"/>
+    </row>
+    <row r="222" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>128</v>
       </c>
@@ -6795,12 +8595,20 @@
       </c>
       <c r="G222" s="17"/>
       <c r="H222" s="17"/>
-      <c r="I222" s="15" t="s">
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+      <c r="M222" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N222" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J222" s="18"/>
-    </row>
-    <row r="223" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O222" s="18"/>
+    </row>
+    <row r="223" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>139</v>
       </c>
@@ -6817,12 +8625,20 @@
       </c>
       <c r="G223" s="17"/>
       <c r="H223" s="17"/>
-      <c r="I223" s="15" t="s">
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+      <c r="M223" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N223" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J223" s="18"/>
-    </row>
-    <row r="224" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O223" s="18"/>
+    </row>
+    <row r="224" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>148</v>
       </c>
@@ -6839,12 +8655,20 @@
       </c>
       <c r="G224" s="17"/>
       <c r="H224" s="17"/>
-      <c r="I224" s="15" t="s">
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
+      <c r="M224" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N224" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="J224" s="18"/>
-    </row>
-    <row r="225" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O224" s="18"/>
+    </row>
+    <row r="225" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>165</v>
       </c>
@@ -6861,12 +8685,20 @@
       </c>
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
-      <c r="I225" s="15" t="s">
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N225" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="J225" s="16"/>
-    </row>
-    <row r="226" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O225" s="16"/>
+    </row>
+    <row r="226" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>236</v>
       </c>
@@ -6883,12 +8715,20 @@
       </c>
       <c r="G226" s="17"/>
       <c r="H226" s="17"/>
-      <c r="I226" s="15" t="s">
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="17"/>
+      <c r="M226" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N226" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J226" s="18"/>
-    </row>
-    <row r="227" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O226" s="18"/>
+    </row>
+    <row r="227" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>358</v>
       </c>
@@ -6905,12 +8745,20 @@
       </c>
       <c r="G227" s="17"/>
       <c r="H227" s="17"/>
-      <c r="I227" s="15" t="s">
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="17"/>
+      <c r="M227" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N227" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J227" s="18"/>
-    </row>
-    <row r="228" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O227" s="18"/>
+    </row>
+    <row r="228" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>119</v>
       </c>
@@ -6927,12 +8775,20 @@
       </c>
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
-      <c r="I228" s="15" t="s">
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N228" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="J228" s="16"/>
-    </row>
-    <row r="229" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O228" s="16"/>
+    </row>
+    <row r="229" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>121</v>
       </c>
@@ -6949,12 +8805,20 @@
       </c>
       <c r="G229" s="17"/>
       <c r="H229" s="17"/>
-      <c r="I229" s="15" t="s">
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
+      <c r="K229" s="17"/>
+      <c r="L229" s="17"/>
+      <c r="M229" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N229" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="J229" s="18"/>
-    </row>
-    <row r="230" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O229" s="18"/>
+    </row>
+    <row r="230" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>183</v>
       </c>
@@ -6971,12 +8835,20 @@
       </c>
       <c r="G230" s="17"/>
       <c r="H230" s="17"/>
-      <c r="I230" s="15" t="s">
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="17"/>
+      <c r="L230" s="17"/>
+      <c r="M230" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N230" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="J230" s="18"/>
-    </row>
-    <row r="231" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O230" s="18"/>
+    </row>
+    <row r="231" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>381</v>
       </c>
@@ -6993,12 +8865,20 @@
       </c>
       <c r="G231" s="17"/>
       <c r="H231" s="17"/>
-      <c r="I231" s="15" t="s">
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="17"/>
+      <c r="M231" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N231" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="J231" s="18"/>
-    </row>
-    <row r="232" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O231" s="18"/>
+    </row>
+    <row r="232" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>115</v>
       </c>
@@ -7015,12 +8895,20 @@
       </c>
       <c r="G232" s="17"/>
       <c r="H232" s="17"/>
-      <c r="I232" s="15" t="s">
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
+      <c r="K232" s="17"/>
+      <c r="L232" s="17"/>
+      <c r="M232" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N232" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J232" s="18"/>
-    </row>
-    <row r="233" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O232" s="18"/>
+    </row>
+    <row r="233" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>158</v>
       </c>
@@ -7037,12 +8925,20 @@
       </c>
       <c r="G233" s="17"/>
       <c r="H233" s="17"/>
-      <c r="I233" s="15" t="s">
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="17"/>
+      <c r="L233" s="17"/>
+      <c r="M233" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N233" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J233" s="18"/>
-    </row>
-    <row r="234" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O233" s="18"/>
+    </row>
+    <row r="234" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>174</v>
       </c>
@@ -7059,12 +8955,20 @@
       </c>
       <c r="G234" s="17"/>
       <c r="H234" s="17"/>
-      <c r="I234" s="15" t="s">
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="17"/>
+      <c r="L234" s="17"/>
+      <c r="M234" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N234" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="J234" s="18"/>
-    </row>
-    <row r="235" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O234" s="18"/>
+    </row>
+    <row r="235" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>276</v>
       </c>
@@ -7081,12 +8985,20 @@
       </c>
       <c r="G235" s="17"/>
       <c r="H235" s="17"/>
-      <c r="I235" s="15" t="s">
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
+      <c r="M235" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N235" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J235" s="18"/>
-    </row>
-    <row r="236" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O235" s="18"/>
+    </row>
+    <row r="236" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>281</v>
       </c>
@@ -7103,12 +9015,20 @@
       </c>
       <c r="G236" s="17"/>
       <c r="H236" s="17"/>
-      <c r="I236" s="15" t="s">
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+      <c r="M236" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N236" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J236" s="18"/>
-    </row>
-    <row r="237" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O236" s="18"/>
+    </row>
+    <row r="237" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>315</v>
       </c>
@@ -7125,12 +9045,20 @@
       </c>
       <c r="G237" s="17"/>
       <c r="H237" s="17"/>
-      <c r="I237" s="15" t="s">
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+      <c r="M237" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N237" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J237" s="18"/>
-    </row>
-    <row r="238" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O237" s="18"/>
+    </row>
+    <row r="238" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>339</v>
       </c>
@@ -7147,12 +9075,20 @@
       </c>
       <c r="G238" s="17"/>
       <c r="H238" s="17"/>
-      <c r="I238" s="15" t="s">
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
+      <c r="K238" s="17"/>
+      <c r="L238" s="17"/>
+      <c r="M238" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N238" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="J238" s="18"/>
-    </row>
-    <row r="239" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O238" s="18"/>
+    </row>
+    <row r="239" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>220</v>
       </c>
@@ -7169,12 +9105,20 @@
       </c>
       <c r="G239" s="17"/>
       <c r="H239" s="17"/>
-      <c r="I239" s="15" t="s">
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+      <c r="M239" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N239" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J239" s="18"/>
-    </row>
-    <row r="240" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O239" s="18"/>
+    </row>
+    <row r="240" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>154</v>
       </c>
@@ -7191,12 +9135,20 @@
         <v>1</v>
       </c>
       <c r="H240" s="17"/>
-      <c r="I240" s="15" t="s">
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N240" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="J240" s="18"/>
-    </row>
-    <row r="241" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O240" s="18"/>
+    </row>
+    <row r="241" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>176</v>
       </c>
@@ -7213,12 +9165,20 @@
         <v>1</v>
       </c>
       <c r="H241" s="17"/>
-      <c r="I241" s="15" t="s">
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+      <c r="M241" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N241" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J241" s="18"/>
-    </row>
-    <row r="242" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O241" s="18"/>
+    </row>
+    <row r="242" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>254</v>
       </c>
@@ -7235,12 +9195,20 @@
         <v>1</v>
       </c>
       <c r="H242" s="17"/>
-      <c r="I242" s="15" t="s">
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+      <c r="M242" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N242" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="J242" s="18"/>
-    </row>
-    <row r="243" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O242" s="18"/>
+    </row>
+    <row r="243" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>286</v>
       </c>
@@ -7257,12 +9225,20 @@
         <v>1</v>
       </c>
       <c r="H243" s="17"/>
-      <c r="I243" s="15" t="s">
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+      <c r="M243" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N243" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="J243" s="18"/>
-    </row>
-    <row r="244" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O243" s="18"/>
+    </row>
+    <row r="244" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>291</v>
       </c>
@@ -7279,12 +9255,20 @@
         <v>1</v>
       </c>
       <c r="H244" s="10"/>
-      <c r="I244" s="15" t="s">
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N244" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="J244" s="16"/>
-    </row>
-    <row r="245" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O244" s="16"/>
+    </row>
+    <row r="245" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>297</v>
       </c>
@@ -7301,12 +9285,20 @@
         <v>1</v>
       </c>
       <c r="H245" s="17"/>
-      <c r="I245" s="15" t="s">
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+      <c r="M245" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N245" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="J245" s="18"/>
-    </row>
-    <row r="246" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O245" s="18"/>
+    </row>
+    <row r="246" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>305</v>
       </c>
@@ -7323,12 +9315,20 @@
         <v>1</v>
       </c>
       <c r="H246" s="17"/>
-      <c r="I246" s="15" t="s">
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="17"/>
+      <c r="L246" s="17"/>
+      <c r="M246" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N246" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="J246" s="18"/>
-    </row>
-    <row r="247" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O246" s="18"/>
+    </row>
+    <row r="247" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>329</v>
       </c>
@@ -7345,12 +9345,20 @@
         <v>1</v>
       </c>
       <c r="H247" s="17"/>
-      <c r="I247" s="15" t="s">
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+      <c r="M247" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N247" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="J247" s="18"/>
-    </row>
-    <row r="248" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O247" s="18"/>
+    </row>
+    <row r="248" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>384</v>
       </c>
@@ -7367,12 +9375,20 @@
         <v>1</v>
       </c>
       <c r="H248" s="17"/>
-      <c r="I248" s="15" t="s">
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
+      <c r="M248" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N248" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="J248" s="18"/>
-    </row>
-    <row r="249" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O248" s="18"/>
+    </row>
+    <row r="249" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>180</v>
       </c>
@@ -7389,12 +9405,20 @@
         <v>1</v>
       </c>
       <c r="H249" s="17"/>
-      <c r="I249" s="15" t="s">
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+      <c r="M249" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N249" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="J249" s="18"/>
-    </row>
-    <row r="250" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O249" s="18"/>
+    </row>
+    <row r="250" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>185</v>
       </c>
@@ -7411,12 +9435,20 @@
         <v>1</v>
       </c>
       <c r="H250" s="17"/>
-      <c r="I250" s="15" t="s">
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+      <c r="M250" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N250" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J250" s="18"/>
-    </row>
-    <row r="251" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O250" s="18"/>
+    </row>
+    <row r="251" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>193</v>
       </c>
@@ -7433,12 +9465,20 @@
         <v>1</v>
       </c>
       <c r="H251" s="17"/>
-      <c r="I251" s="15" t="s">
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+      <c r="M251" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N251" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="J251" s="18"/>
-    </row>
-    <row r="252" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O251" s="18"/>
+    </row>
+    <row r="252" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>328</v>
       </c>
@@ -7455,12 +9495,20 @@
         <v>1</v>
       </c>
       <c r="H252" s="17"/>
-      <c r="I252" s="15" t="s">
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
+      <c r="K252" s="17"/>
+      <c r="L252" s="17"/>
+      <c r="M252" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N252" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="J252" s="18"/>
-    </row>
-    <row r="253" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O252" s="18"/>
+    </row>
+    <row r="253" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>241</v>
       </c>
@@ -7477,12 +9525,20 @@
         <v>1</v>
       </c>
       <c r="H253" s="17"/>
-      <c r="I253" s="15" t="s">
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
+      <c r="M253" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N253" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="J253" s="18"/>
-    </row>
-    <row r="254" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O253" s="18"/>
+    </row>
+    <row r="254" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>250</v>
       </c>
@@ -7499,12 +9555,20 @@
         <v>1</v>
       </c>
       <c r="H254" s="17"/>
-      <c r="I254" s="15" t="s">
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="17"/>
+      <c r="L254" s="17"/>
+      <c r="M254" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N254" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="J254" s="18"/>
-    </row>
-    <row r="255" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O254" s="18"/>
+    </row>
+    <row r="255" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>361</v>
       </c>
@@ -7521,12 +9585,20 @@
         <v>1</v>
       </c>
       <c r="H255" s="17"/>
-      <c r="I255" s="15" t="s">
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+      <c r="M255" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N255" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="J255" s="18"/>
-    </row>
-    <row r="256" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O255" s="18"/>
+    </row>
+    <row r="256" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>212</v>
       </c>
@@ -7543,12 +9615,20 @@
         <v>1</v>
       </c>
       <c r="H256" s="17"/>
-      <c r="I256" s="15" t="s">
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+      <c r="M256" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N256" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J256" s="18"/>
-    </row>
-    <row r="257" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O256" s="18"/>
+    </row>
+    <row r="257" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>300</v>
       </c>
@@ -7565,12 +9645,20 @@
         <v>1</v>
       </c>
       <c r="H257" s="17"/>
-      <c r="I257" s="15" t="s">
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
+      <c r="M257" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N257" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="J257" s="18"/>
-    </row>
-    <row r="258" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O257" s="18"/>
+    </row>
+    <row r="258" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>306</v>
       </c>
@@ -7587,12 +9675,20 @@
         <v>1</v>
       </c>
       <c r="H258" s="10"/>
-      <c r="I258" s="15" t="s">
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N258" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="J258" s="16"/>
-    </row>
-    <row r="259" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O258" s="16"/>
+    </row>
+    <row r="259" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>230</v>
       </c>
@@ -7609,12 +9705,20 @@
         <v>1</v>
       </c>
       <c r="H259" s="17"/>
-      <c r="I259" s="15" t="s">
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N259" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J259" s="18"/>
-    </row>
-    <row r="260" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O259" s="18"/>
+    </row>
+    <row r="260" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>231</v>
       </c>
@@ -7631,12 +9735,20 @@
         <v>1</v>
       </c>
       <c r="H260" s="17"/>
-      <c r="I260" s="15" t="s">
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
+      <c r="M260" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N260" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="J260" s="18"/>
-    </row>
-    <row r="261" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O260" s="18"/>
+    </row>
+    <row r="261" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>293</v>
       </c>
@@ -7653,12 +9765,20 @@
         <v>1</v>
       </c>
       <c r="H261" s="17"/>
-      <c r="I261" s="15" t="s">
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
+      <c r="M261" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N261" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J261" s="18"/>
-    </row>
-    <row r="262" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O261" s="18"/>
+    </row>
+    <row r="262" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>325</v>
       </c>
@@ -7675,12 +9795,20 @@
       <c r="H262" s="17">
         <v>1</v>
       </c>
-      <c r="I262" s="15" t="s">
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17"/>
+      <c r="M262" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N262" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="J262" s="18"/>
-    </row>
-    <row r="263" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O262" s="18"/>
+    </row>
+    <row r="263" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>336</v>
       </c>
@@ -7697,12 +9825,20 @@
       <c r="H263" s="17">
         <v>1</v>
       </c>
-      <c r="I263" s="15" t="s">
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
+      <c r="M263" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N263" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="J263" s="18"/>
-    </row>
-    <row r="264" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O263" s="18"/>
+    </row>
+    <row r="264" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>373</v>
       </c>
@@ -7719,12 +9855,20 @@
       <c r="H264" s="10">
         <v>1</v>
       </c>
-      <c r="I264" s="15" t="s">
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N264" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="J264" s="16"/>
-    </row>
-    <row r="265" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O264" s="16"/>
+    </row>
+    <row r="265" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>113</v>
       </c>
@@ -7741,12 +9885,20 @@
       <c r="H265" s="17">
         <v>1</v>
       </c>
-      <c r="I265" s="15" t="s">
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+      <c r="M265" s="11">
+        <f t="shared" ref="M265:M303" si="4">SUM(I265:L265)</f>
+        <v>0</v>
+      </c>
+      <c r="N265" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="J265" s="18"/>
-    </row>
-    <row r="266" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O265" s="18"/>
+    </row>
+    <row r="266" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>137</v>
       </c>
@@ -7763,12 +9915,20 @@
       <c r="H266" s="17">
         <v>1</v>
       </c>
-      <c r="I266" s="15" t="s">
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
+      <c r="M266" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N266" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="J266" s="18"/>
-    </row>
-    <row r="267" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O266" s="18"/>
+    </row>
+    <row r="267" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10">
         <v>147</v>
       </c>
@@ -7785,12 +9945,20 @@
       <c r="H267" s="10">
         <v>1</v>
       </c>
-      <c r="I267" s="15" t="s">
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N267" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="J267" s="16"/>
-    </row>
-    <row r="268" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O267" s="16"/>
+    </row>
+    <row r="268" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>153</v>
       </c>
@@ -7807,12 +9975,20 @@
       <c r="H268" s="17">
         <v>1</v>
       </c>
-      <c r="I268" s="15" t="s">
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+      <c r="M268" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N268" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="J268" s="18"/>
-    </row>
-    <row r="269" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O268" s="18"/>
+    </row>
+    <row r="269" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10">
         <v>159</v>
       </c>
@@ -7829,12 +10005,20 @@
       <c r="H269" s="17">
         <v>1</v>
       </c>
-      <c r="I269" s="15" t="s">
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+      <c r="M269" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N269" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="J269" s="18"/>
-    </row>
-    <row r="270" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O269" s="18"/>
+    </row>
+    <row r="270" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10">
         <v>181</v>
       </c>
@@ -7851,12 +10035,20 @@
       <c r="H270" s="17">
         <v>1</v>
       </c>
-      <c r="I270" s="15" t="s">
+      <c r="I270" s="17"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+      <c r="M270" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N270" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="J270" s="18"/>
-    </row>
-    <row r="271" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O270" s="18"/>
+    </row>
+    <row r="271" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>191</v>
       </c>
@@ -7873,12 +10065,20 @@
       <c r="H271" s="10">
         <v>1</v>
       </c>
-      <c r="I271" s="15" t="s">
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N271" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="J271" s="16"/>
-    </row>
-    <row r="272" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O271" s="16"/>
+    </row>
+    <row r="272" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10">
         <v>202</v>
       </c>
@@ -7895,12 +10095,20 @@
       <c r="H272" s="10">
         <v>1</v>
       </c>
-      <c r="I272" s="15" t="s">
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="10"/>
+      <c r="M272" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N272" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="J272" s="16"/>
-    </row>
-    <row r="273" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O272" s="16"/>
+    </row>
+    <row r="273" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10">
         <v>207</v>
       </c>
@@ -7917,12 +10125,20 @@
       <c r="H273" s="17">
         <v>1</v>
       </c>
-      <c r="I273" s="15" t="s">
+      <c r="I273" s="17"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="17"/>
+      <c r="L273" s="17"/>
+      <c r="M273" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N273" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="J273" s="18"/>
-    </row>
-    <row r="274" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O273" s="18"/>
+    </row>
+    <row r="274" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10">
         <v>218</v>
       </c>
@@ -7939,12 +10155,20 @@
       <c r="H274" s="17">
         <v>1</v>
       </c>
-      <c r="I274" s="15" t="s">
+      <c r="I274" s="17"/>
+      <c r="J274" s="17"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+      <c r="M274" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N274" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="J274" s="18"/>
-    </row>
-    <row r="275" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O274" s="18"/>
+    </row>
+    <row r="275" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10">
         <v>248</v>
       </c>
@@ -7961,12 +10185,20 @@
       <c r="H275" s="17">
         <v>1</v>
       </c>
-      <c r="I275" s="15" t="s">
+      <c r="I275" s="17"/>
+      <c r="J275" s="17"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+      <c r="M275" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N275" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="J275" s="18"/>
-    </row>
-    <row r="276" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O275" s="18"/>
+    </row>
+    <row r="276" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10">
         <v>260</v>
       </c>
@@ -7983,12 +10215,20 @@
       <c r="H276" s="10">
         <v>1</v>
       </c>
-      <c r="I276" s="15" t="s">
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+      <c r="K276" s="10"/>
+      <c r="L276" s="10"/>
+      <c r="M276" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N276" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="J276" s="16"/>
-    </row>
-    <row r="277" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O276" s="16"/>
+    </row>
+    <row r="277" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10">
         <v>269</v>
       </c>
@@ -8005,12 +10245,20 @@
       <c r="H277" s="10">
         <v>1</v>
       </c>
-      <c r="I277" s="15" t="s">
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N277" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="J277" s="16"/>
-    </row>
-    <row r="278" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O277" s="16"/>
+    </row>
+    <row r="278" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10">
         <v>282</v>
       </c>
@@ -8027,12 +10275,20 @@
       <c r="H278" s="17">
         <v>1</v>
       </c>
-      <c r="I278" s="15" t="s">
+      <c r="I278" s="17"/>
+      <c r="J278" s="17"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+      <c r="M278" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N278" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="J278" s="18"/>
-    </row>
-    <row r="279" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O278" s="18"/>
+    </row>
+    <row r="279" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
         <v>288</v>
       </c>
@@ -8049,12 +10305,20 @@
       <c r="H279" s="17">
         <v>1</v>
       </c>
-      <c r="I279" s="15" t="s">
+      <c r="I279" s="17"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+      <c r="M279" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N279" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="J279" s="18"/>
-    </row>
-    <row r="280" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O279" s="18"/>
+    </row>
+    <row r="280" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>311</v>
       </c>
@@ -8071,12 +10335,20 @@
       <c r="H280" s="17">
         <v>1</v>
       </c>
-      <c r="I280" s="15" t="s">
+      <c r="I280" s="17"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
+      <c r="M280" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N280" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="J280" s="18"/>
-    </row>
-    <row r="281" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O280" s="18"/>
+    </row>
+    <row r="281" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10">
         <v>312</v>
       </c>
@@ -8093,12 +10365,20 @@
       <c r="H281" s="17">
         <v>1</v>
       </c>
-      <c r="I281" s="15" t="s">
+      <c r="I281" s="17"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+      <c r="M281" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N281" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="J281" s="18"/>
-    </row>
-    <row r="282" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O281" s="18"/>
+    </row>
+    <row r="282" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10">
         <v>316</v>
       </c>
@@ -8115,12 +10395,20 @@
       <c r="H282" s="10">
         <v>1</v>
       </c>
-      <c r="I282" s="15" t="s">
+      <c r="I282" s="10"/>
+      <c r="J282" s="10"/>
+      <c r="K282" s="10"/>
+      <c r="L282" s="10"/>
+      <c r="M282" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N282" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="J282" s="16"/>
-    </row>
-    <row r="283" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O282" s="16"/>
+    </row>
+    <row r="283" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10">
         <v>318</v>
       </c>
@@ -8137,12 +10425,20 @@
       <c r="H283" s="17">
         <v>1</v>
       </c>
-      <c r="I283" s="15" t="s">
+      <c r="I283" s="17"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="17"/>
+      <c r="L283" s="17"/>
+      <c r="M283" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N283" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="J283" s="18"/>
-    </row>
-    <row r="284" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O283" s="18"/>
+    </row>
+    <row r="284" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10">
         <v>331</v>
       </c>
@@ -8159,12 +10455,20 @@
       <c r="H284" s="17">
         <v>1</v>
       </c>
-      <c r="I284" s="15" t="s">
+      <c r="I284" s="17"/>
+      <c r="J284" s="17"/>
+      <c r="K284" s="17"/>
+      <c r="L284" s="17"/>
+      <c r="M284" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N284" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="J284" s="18"/>
-    </row>
-    <row r="285" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O284" s="18"/>
+    </row>
+    <row r="285" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10">
         <v>333</v>
       </c>
@@ -8181,12 +10485,20 @@
       <c r="H285" s="17">
         <v>1</v>
       </c>
-      <c r="I285" s="15" t="s">
+      <c r="I285" s="17"/>
+      <c r="J285" s="17"/>
+      <c r="K285" s="17"/>
+      <c r="L285" s="17"/>
+      <c r="M285" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N285" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="J285" s="18"/>
-    </row>
-    <row r="286" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O285" s="18"/>
+    </row>
+    <row r="286" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10">
         <v>335</v>
       </c>
@@ -8203,12 +10515,20 @@
       <c r="H286" s="17">
         <v>1</v>
       </c>
-      <c r="I286" s="15" t="s">
+      <c r="I286" s="17"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+      <c r="M286" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="J286" s="18"/>
-    </row>
-    <row r="287" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O286" s="18"/>
+    </row>
+    <row r="287" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10">
         <v>398</v>
       </c>
@@ -8225,12 +10545,20 @@
       <c r="H287" s="17">
         <v>1</v>
       </c>
-      <c r="I287" s="15" t="s">
+      <c r="I287" s="17"/>
+      <c r="J287" s="17"/>
+      <c r="K287" s="17"/>
+      <c r="L287" s="17"/>
+      <c r="M287" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N287" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="J287" s="18"/>
-    </row>
-    <row r="288" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O287" s="18"/>
+    </row>
+    <row r="288" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10">
         <v>155</v>
       </c>
@@ -8247,12 +10575,20 @@
       <c r="H288" s="17">
         <v>1</v>
       </c>
-      <c r="I288" s="15" t="s">
+      <c r="I288" s="17"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+      <c r="M288" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N288" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="J288" s="18"/>
-    </row>
-    <row r="289" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O288" s="18"/>
+    </row>
+    <row r="289" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
         <v>199</v>
       </c>
@@ -8269,12 +10605,20 @@
       <c r="H289" s="17">
         <v>1</v>
       </c>
-      <c r="I289" s="15" t="s">
+      <c r="I289" s="17"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="17"/>
+      <c r="L289" s="17"/>
+      <c r="M289" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="J289" s="18"/>
-    </row>
-    <row r="290" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O289" s="18"/>
+    </row>
+    <row r="290" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10">
         <v>201</v>
       </c>
@@ -8291,12 +10635,20 @@
       <c r="H290" s="17">
         <v>1</v>
       </c>
-      <c r="I290" s="15" t="s">
+      <c r="I290" s="17"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="17"/>
+      <c r="L290" s="17"/>
+      <c r="M290" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N290" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="J290" s="18"/>
-    </row>
-    <row r="291" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O290" s="18"/>
+    </row>
+    <row r="291" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10">
         <v>203</v>
       </c>
@@ -8313,12 +10665,20 @@
       <c r="H291" s="17">
         <v>1</v>
       </c>
-      <c r="I291" s="15" t="s">
+      <c r="I291" s="17"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="17"/>
+      <c r="L291" s="17"/>
+      <c r="M291" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N291" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="J291" s="18"/>
-    </row>
-    <row r="292" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O291" s="18"/>
+    </row>
+    <row r="292" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10">
         <v>205</v>
       </c>
@@ -8335,12 +10695,20 @@
       <c r="H292" s="17">
         <v>1</v>
       </c>
-      <c r="I292" s="15" t="s">
+      <c r="I292" s="17"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="17"/>
+      <c r="L292" s="17"/>
+      <c r="M292" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N292" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="J292" s="18"/>
-    </row>
-    <row r="293" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O292" s="18"/>
+    </row>
+    <row r="293" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10">
         <v>264</v>
       </c>
@@ -8357,12 +10725,20 @@
       <c r="H293" s="17">
         <v>1</v>
       </c>
-      <c r="I293" s="15" t="s">
+      <c r="I293" s="17"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="17"/>
+      <c r="L293" s="17"/>
+      <c r="M293" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N293" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="J293" s="18"/>
-    </row>
-    <row r="294" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O293" s="18"/>
+    </row>
+    <row r="294" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10">
         <v>277.5</v>
       </c>
@@ -8379,12 +10755,20 @@
       <c r="H294" s="17">
         <v>1</v>
       </c>
-      <c r="I294" s="15" t="s">
+      <c r="I294" s="17"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="17"/>
+      <c r="L294" s="17"/>
+      <c r="M294" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N294" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="J294" s="18"/>
-    </row>
-    <row r="295" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O294" s="18"/>
+    </row>
+    <row r="295" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10">
         <v>390</v>
       </c>
@@ -8401,12 +10785,20 @@
       <c r="H295" s="17">
         <v>1</v>
       </c>
-      <c r="I295" s="15" t="s">
+      <c r="I295" s="17"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="J295" s="18"/>
-    </row>
-    <row r="296" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O295" s="18"/>
+    </row>
+    <row r="296" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10">
         <v>187</v>
       </c>
@@ -8423,12 +10815,20 @@
       <c r="H296" s="17">
         <v>1</v>
       </c>
-      <c r="I296" s="15" t="s">
+      <c r="I296" s="17"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="J296" s="18"/>
-    </row>
-    <row r="297" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O296" s="18"/>
+    </row>
+    <row r="297" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10">
         <v>208</v>
       </c>
@@ -8445,12 +10845,20 @@
       <c r="H297" s="17">
         <v>1</v>
       </c>
-      <c r="I297" s="15" t="s">
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="J297" s="18"/>
-    </row>
-    <row r="298" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O297" s="18"/>
+    </row>
+    <row r="298" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
         <v>229</v>
       </c>
@@ -8467,12 +10875,20 @@
       <c r="H298" s="17">
         <v>1</v>
       </c>
-      <c r="I298" s="15" t="s">
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="J298" s="18"/>
-    </row>
-    <row r="299" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O298" s="18"/>
+    </row>
+    <row r="299" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10">
         <v>232</v>
       </c>
@@ -8489,12 +10905,20 @@
       <c r="H299" s="17">
         <v>1</v>
       </c>
-      <c r="I299" s="15" t="s">
+      <c r="I299" s="17"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N299" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="J299" s="18"/>
-    </row>
-    <row r="300" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O299" s="18"/>
+    </row>
+    <row r="300" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
         <v>233</v>
       </c>
@@ -8511,12 +10935,20 @@
       <c r="H300" s="17">
         <v>1</v>
       </c>
-      <c r="I300" s="15" t="s">
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="11">
+        <f>SUM(I300:L300)</f>
+        <v>0</v>
+      </c>
+      <c r="N300" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="J300" s="18"/>
-    </row>
-    <row r="301" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O300" s="18"/>
+    </row>
+    <row r="301" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
         <v>184</v>
       </c>
@@ -8533,12 +10965,20 @@
       <c r="H301" s="17">
         <v>1</v>
       </c>
-      <c r="I301" s="15" t="s">
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N301" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="J301" s="18"/>
-    </row>
-    <row r="302" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O301" s="18"/>
+    </row>
+    <row r="302" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
         <v>245</v>
       </c>
@@ -8555,12 +10995,20 @@
       <c r="H302" s="17">
         <v>1</v>
       </c>
-      <c r="I302" s="15" t="s">
+      <c r="I302" s="17"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+      <c r="M302" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N302" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="J302" s="18"/>
-    </row>
-    <row r="303" spans="1:10" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O302" s="18"/>
+    </row>
+    <row r="303" spans="1:15" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
         <v>116</v>
       </c>
@@ -8577,12 +11025,20 @@
       <c r="H303" s="17">
         <v>1</v>
       </c>
-      <c r="I303" s="15" t="s">
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="17"/>
+      <c r="L303" s="17"/>
+      <c r="M303" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N303" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="J303" s="18"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O303" s="18"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -9029,74 +11485,79 @@
     <sortCondition descending="1" ref="H4:H303"/>
     <sortCondition ref="B4:B303"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I7:J7 I13:I18 A13:A18 I34:I52 A34:A52 I85:I115 A85:A115 I230:I278 I147:I181 A241:A279 A147:A181">
+  <conditionalFormatting sqref="N7:O7 N13:N18 A13:A18 N34:N52 A34:A52 N85:N115 A85:A115 N230:N278 N147:N181 A241:A279 A147:A181">
     <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J12">
+  <conditionalFormatting sqref="N12:O12">
     <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J33 I53:J56">
+  <conditionalFormatting sqref="N30:O33 N53:O56">
     <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:J68">
+  <conditionalFormatting sqref="N60:O68">
     <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I210:J212 I214:J217">
+  <conditionalFormatting sqref="N210:O212 N214:O217">
     <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I213:J213">
+  <conditionalFormatting sqref="N213:O213">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I218:J218">
+  <conditionalFormatting sqref="N218:O218">
     <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I210:J218">
+  <conditionalFormatting sqref="N210:O218">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I219">
+  <conditionalFormatting sqref="N219">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I219">
+  <conditionalFormatting sqref="N219">
     <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I220">
+  <conditionalFormatting sqref="N220">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I220">
+  <conditionalFormatting sqref="N220">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9136,32 +11597,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I221:I229">
+  <conditionalFormatting sqref="N221:N229">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I221:I229">
+  <conditionalFormatting sqref="N221:N229">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I279:I280">
+  <conditionalFormatting sqref="N279:N280">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I279:I280">
+  <conditionalFormatting sqref="N279:N280">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I281">
+  <conditionalFormatting sqref="N281">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I281">
+  <conditionalFormatting sqref="N281">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9241,12 +11702,12 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I282:I287">
+  <conditionalFormatting sqref="N282:N287">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I282:I287">
+  <conditionalFormatting sqref="N282:N287">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -9256,32 +11717,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I288:I299">
+  <conditionalFormatting sqref="N288:N299">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I288:I299">
+  <conditionalFormatting sqref="N288:N299">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I300:I302">
+  <conditionalFormatting sqref="N300:N302">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I300:I302">
+  <conditionalFormatting sqref="N300:N302">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
+  <conditionalFormatting sqref="N303">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I303">
+  <conditionalFormatting sqref="N303">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
